--- a/cta策略/result/螺纹/KDJ_1d/wfo_最优两组参数的绩效.xlsx
+++ b/cta策略/result/螺纹/KDJ_1d/wfo_最优两组参数的绩效.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>参数</t>
   </si>
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,36 +420,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>-0.03201795662768647</v>
+        <v>0.08530454849644564</v>
       </c>
       <c r="D2">
-        <v>-0.9522054393639473</v>
+        <v>0.2933567919624471</v>
       </c>
       <c r="E2">
-        <v>-0.1095610610115845</v>
+        <v>0.3856432727014904</v>
       </c>
       <c r="F2">
-        <v>0.1875</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>-0.032165901482342</v>
-      </c>
-      <c r="D3">
-        <v>-1.126730848548503</v>
-      </c>
-      <c r="E3">
-        <v>-0.1594098944453173</v>
-      </c>
-      <c r="F3">
-        <v>0.1875</v>
+        <v>0.5882352941176471</v>
       </c>
     </row>
   </sheetData>
